--- a/excel/망원술집.xlsx
+++ b/excel/망원술집.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F259"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>슌우</t>
+          <t>코멘터리사운드 와인샵 &amp; 와인바</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,29 +483,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 63 1층</t>
+          <t>서울 마포구 월드컵로23길 18 201호</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '16:00 - 02:00', '01:00 라스트오더'], ['일', '16:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['영업 중', '21:30에 라스트오더', '21시 30분에 라스트오더'], ['일', '15:00 - 22:00', '21:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 24:00', '23:30 라스트오더'], ['수', '18:00 - 24:00', '23:30 라스트오더'], ['목', '18:00 - 24:00', '23:30 라스트오더'], ['금', '18:00 - 24:00', '23:30 라스트오더'], ['토', '15:00 - 24:00', '23:30 라스트오더']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0507-1377-5285</t>
+          <t>0507-1425-2281</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>철길부산집 망원점</t>
+          <t>슌우</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,17 +515,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 117 . 1층 1-4호</t>
+          <t>서울 마포구 월드컵로23길 18 201호</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '17:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0507-1378-8642</t>
+          <t>0507-1425-2281</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '15:00 - 02:00'], ['일', '15:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 02:00']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '15:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 02:00'], ['토', '15:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 24:00', '23:00 라스트오더'], ['목', '18:00 - 24:00', '23:00 라스트오더'], ['금', '18:00 - 24:00', '23:00 라스트오더'], ['토', '16:00 - 24:00', '23:00 라스트오더']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 24:00', '23:00 라스트오더'], ['목', '18:00 - 24:00', '23:00 라스트오더'], ['금', '18:00 - 24:00', '23:00 라스트오더'], ['토', '16:00 - 24:00', '23:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기'], ['놀라운토요일 195회, 22.01.15.', '2022년 1월 15일', ' 차돌된장전골']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0507-1396-4083</t>
+          <t>070-8864-1414</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '16:30 - 02:00'], ['일', '16:30 - 02:00'], ['월', '16:30 - 02:00'], ['화', '16:30 - 02:00'], ['수', '16:30 - 02:00'], ['목', '16:30 - 02:00'], ['금', '16:30 - 02:00'], ['식객허영만의백반기행 15회, 19.09.06.', '2019년 9월 6일', ' 육전/가자미튀김']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기'], ['식객허영만의백반기행 15회, 19.09.06.', '2019년 9월 6일', ' 육전/가자미튀김']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -680,12 +680,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기'], [''], ['휴무일', '07/17']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '16:30 - 02:00'], ['월', '16:30 - 02:00'], ['화', '16:30 - 02:00'], ['수', '16:30 - 02:00'], ['목', '16:30 - 02:00'], ['금', '16:30 - 02:00'], ['토', '16:30 - 02:00'], ['식객허영만의백반기행 15회, 19.09.06.', '2019년 9월 6일', ' 육전/가자미튀김']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0507-1362-7637</t>
+          <t>010-4422-5157</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 24:00', '23:00 라스트오더'], ['화', '18:00 - 24:00', '23:00 라스트오더'], ['수', '18:00 - 24:00', '23:00 라스트오더'], ['목', '18:00 - 24:00', '23:00 라스트오더'], ['금', '18:00 - 24:00', '23:00 라스트오더'], ['토', '18:00 - 24:00', '23:00 라스트오더']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 24:00', '23:00 라스트오더'], ['화', '18:00 - 24:00', '23:00 라스트오더'], ['수', '18:00 - 24:00', '23:00 라스트오더'], ['목', '18:00 - 24:00', '23:00 라스트오더'], ['금', '18:00 - 24:00', '23:00 라스트오더'], ['토', '18:00 - 24:00', '23:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0507-1359-1716</t>
+          <t>02-322-5545</t>
         </is>
       </c>
     </row>
@@ -798,17 +798,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75 1층 화월</t>
+          <t>서울 마포구 월드컵로13길 19-19</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '18:00 - 24:00'], ['월', '18:00 - 02:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 03:00'], ['토', '18:00 - 03:00'], ['- 일요일은 01:00 마감']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -840,12 +840,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0507-1348-3237</t>
+          <t>010-3745-7037</t>
         </is>
       </c>
     </row>
@@ -862,17 +862,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로20길 75 1층 나나</t>
+          <t>서울 마포구 방울내로 66 1층</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -894,22 +894,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 63 형섭빌딩 2층</t>
+          <t>서울 마포구 방울내로 66 1층</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '17:00 - 02:00'], ['일', '17:00 - 01:00'], ['월', '17:00 - 01:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 02:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 03:00'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00'], ['- 휴무일은 인스타그램 @mw66wm 을 참고해주세요']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0507-1346-3024</t>
+          <t>010-5415-3562</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['곧 영업 종료', '01:30에 영업 종료', '1시 30분에 영업 종료'], ['토', '17:30 - 01:30', '00:30 라스트오더'], ['일', '17:30 - 01:30', '00:30 라스트오더'], ['월', '17:30 - 01:30', '00:30 라스트오더'], ['화', '17:30 - 01:30', '00:30 라스트오더'], ['수', '17:30 - 01:30', '00:30 라스트오더'], ['목', '17:30 - 01:30', '00:30 라스트오더'], ['금', '17:30 - 01:30', '00:30 라스트오더']]</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['영업 종료', '20:00에 영업 시작', '20시 0분에 영업 시작', '펼쳐보기']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '18:00 - 02:00', '01:00 라스트오더'], ['일', '18:30 - 01:00', '00:00 라스트오더'], ['월', '18:30 - 01:00', '00:00 라스트오더'], ['화', '18:30 - 01:00', '00:00 라스트오더'], ['수', '정기휴무 (매주 수요일)'], ['목', '18:30 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['일', '18:30 - 01:00', '00:00 라스트오더'], ['월', '18:30 - 01:00', '00:00 라스트오더'], ['화', '18:30 - 01:00', '00:00 라스트오더'], ['수', '정기휴무 (매주 수요일)'], ['목', '18:30 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 02:00', '01:00 라스트오더'], ['토', '18:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1027,12 +1027,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로16길 54-5 2층</t>
+          <t>서울 마포구 포은로 86-1 1층 103호(망원동)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더'], ['토', '18:00 - 03:00', '02:00 라스트오더'], ['일', '18:00 - 02:00', '01:00 라스트오더'], ['월', '18:00 - 02:00', '01:00 라스트오더'], ['화', '18:00 - 02:00', '01:00 라스트오더'], ['수', '18:00 - 02:00', '01:00 라스트오더'], ['목', '18:00 - 02:00', '01:00 라스트오더'], ['금', '18:00 - 03:00', '02:00 라스트오더']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['토', '17:00 - 04:00'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 04:00']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 04:00'], ['토', '17:00 - 04:00']]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '19:00 - 03:00'], ['일', '19:00 - 03:00'], ['월', '19:00 - 03:00'], ['화', '19:00 - 03:00'], ['수', '19:00 - 03:00'], ['목', '19:00 - 03:00'], ['금', '19:00 - 03:00']]</t>
+          <t>[['곧 영업 시작', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['일', '19:00 - 03:00'], ['월', '19:00 - 03:00'], ['화', '19:00 - 03:00'], ['수', '19:00 - 03:00'], ['목', '19:00 - 03:00'], ['금', '19:00 - 03:00'], ['토', '19:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:30에 영업 시작', '17시 30분에 영업 시작'], ['일', '17:30 - 23:30', '22:30 라스트오더'], ['월', '18:30 - 23:30', '22:30 라스트오더'], ['화', '18:30 - 23:30', '22:30 라스트오더'], ['수', '18:30 - 23:30', '22:30 라스트오더'], ['목', '정기휴무 (매주 목요일)'], ['금', '18:30 - 23:30', '22:30 라스트오더'], ['토', '17:30 - 23:30', '22:30 라스트오더']]</t>
+          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더'], ['일', '17:30 - 23:30', '22:30 라스트오더'], ['월', '18:30 - 23:30', '22:30 라스트오더'], ['화', '18:30 - 23:30', '22:30 라스트오더'], ['수', '18:30 - 23:30', '22:30 라스트오더'], ['목', '정기휴무 (매주 목요일)'], ['금', '18:30 - 23:30', '22:30 라스트오더'], ['토', '17:30 - 23:30', '22:30 라스트오더']]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '17:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '정기휴무 (매주 목요일)'], ['금', '17:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['일', '17:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '정기휴무 (매주 목요일)'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1172,12 +1172,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>서교주담 망원</t>
+          <t>온밀</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>스파게티,파스타전문</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1187,29 +1187,29 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 82 1층</t>
+          <t>서울 마포구 포은로 84 1층</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '15:00 - 02:00'], ['일', '15:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 02:00']]</t>
+          <t>[['영업 중', '20:40에 라스트오더', '20시 40분에 라스트오더'], ['일', '11:50 - 21:00', '20:40 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '11:50 - 21:00', '20:40 라스트오더'], ['수', '11:50 - 21:00', '20:40 라스트오더'], ['목', '11:50 - 21:00', '20:40 라스트오더'], ['금', '11:50 - 21:00', '20:40 라스트오더'], ['토', '11:50 - 21:00', '20:40 라스트오더']]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>010-2633-7974</t>
+          <t>0507-1382-2771</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>반주</t>
+          <t>철길부산집 망원점</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1219,17 +1219,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로19길 18 2층</t>
+          <t>서울 마포구 포은로 117 . 1층 1-4호</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '18:00 - 02:00'], ['일', '18:00 - 24:00'], ['월', '18:00 - 01:00'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00'], ['- 자세한 사항은 인스타로 공지합니다']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['일', '17:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0507-1426-3231</t>
+          <t>0507-1378-8642</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>호아</t>
+          <t>해진뒤</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1278,29 +1278,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로16길 17 지층</t>
+          <t>서울 마포구 월드컵로23길 20 2층</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '14:00 - 02:00', '01:00 라스트오더'], ['일', '14:00 - 02:00', '01:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 02:00', '01:00 라스트오더'], ['수', '18:00 - 02:00', '01:00 라스트오더'], ['목', '18:00 - 02:00', '01:00 라스트오더'], ['금', '18:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 21:50'], ['수', '17:00 - 21:50'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 24:00']]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0507-1307-5938</t>
+          <t>0507-1372-2320</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>해진뒤</t>
+          <t>한지</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1332,7 +1332,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>한지</t>
+          <t>호아</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1342,22 +1342,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로23길 20 2층</t>
+          <t>서울 마포구 희우정로16길 17 지층</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '21:00에 영업 종료', '21시 0분에 영업 종료'], ['일(7/9)', '15:00 - 21:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 02:00', '01:00 라스트오더'], ['수', '18:00 - 02:00', '01:00 라스트오더'], ['목', '18:00 - 02:00', '01:00 라스트오더'], ['금', '18:00 - 02:00', '01:00 라스트오더'], ['토', '14:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>02-6082-2341</t>
+          <t>0507-1307-5938</t>
         </is>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 01:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1416,12 +1416,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['일', '17:00 - 01:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00']]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>070-4042-1536</t>
+          <t>0507-1312-9873</t>
         </is>
       </c>
     </row>
@@ -1438,17 +1438,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로19길 12 2층</t>
+          <t>서울 마포구 월드컵로19길 42 2층</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '17:30 - 02:00', '01:00 라스트오더'], ['일', '17:30 - 01:00', '00:00 라스트오더'], ['월', '17:30 - 01:00', '00:00 라스트오더'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:30 - 01:00', '00:00 라스트오더'], ['목', '17:30 - 01:00', '00:00 라스트오더'], ['금', '17:30 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['일', '17:30 - 01:00', '00:00 라스트오더'], ['월', '17:30 - 01:00', '00:00 라스트오더'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:30 - 01:00', '00:00 라스트오더'], ['목', '17:30 - 01:00', '00:00 라스트오더'], ['금', '17:30 - 02:00', '01:00 라스트오더'], ['토', '17:30 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['일', '17:00 - 01:00'], ['월', '18:00 - 01:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00'], ['토', '17:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1512,12 +1512,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0507-1478-5456</t>
+          <t>02-336-0710</t>
         </is>
       </c>
     </row>
@@ -1576,12 +1576,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 24:00'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 24:00'], ['토', '18:00 - 24:00']]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0507-1467-1614</t>
+          <t>0507-1328-4360</t>
         </is>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:30에 영업 시작', '17시 30분에 영업 시작', '펼쳐보기']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '17:30 - 24:00'], ['월', '18:30 - 24:00'], ['화', '18:30 - 24:00'], ['수', '18:30 - 24:00'], ['목', '18:30 - 24:00'], ['금', '18:30 - 24:00'], ['토', '17:30 - 24:00']]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1640,12 +1640,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0507-1344-9599</t>
+          <t>0507-1422-0227</t>
         </is>
       </c>
     </row>
@@ -1662,17 +1662,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 70-1</t>
+          <t>서울 마포구 희우정로10길 15 상가동 112호, 113호</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '12:00 - 02:00'], ['월', '12:00 - 24:00'], ['화', '12:00 - 24:00'], ['수', '12:00 - 24:00'], ['목', '12:00 - 24:00'], ['금', '12:00 - 02:00'], ['토', '12:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더'], ['토', '13:00 - 05:00', '04:00 라스트오더'], ['일', '13:00 - 05:00', '04:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '19:00 - 05:00', '04:00 라스트오더'], ['수', '19:00 - 05:00', '04:00 라스트오더'], ['목', '19:00 - 05:00', '04:00 라스트오더'], ['금', '19:00 - 05:00', '04:00 라스트오더']]</t>
+          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1716,12 +1716,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>선술집 위군</t>
+          <t>망원엣지 망리단길점</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1736,19 +1736,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더'], ['일', '14:00 - 05:00', '04:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '19:00 - 05:00', '04:00 라스트오더'], ['수', '19:00 - 05:00', '04:00 라스트오더'], ['목', '19:00 - 05:00', '04:00 라스트오더'], ['금', '19:00 - 05:00', '04:00 라스트오더'], ['토', '14:00 - 05:00', '04:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>02-6083-5628</t>
+          <t>0507-1351-4149</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>시러스</t>
+          <t>코멘터리사운드 와인샵 &amp; 와인바</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1758,22 +1758,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 74 1층</t>
+          <t>서울 마포구 월드컵로23길 18 201호</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작', '펼쳐보기'], [''], ['휴무일', '07/11, 07/18']]</t>
+          <t>[['영업 중', '21:30에 라스트오더', '21시 30분에 라스트오더'], ['일', '15:00 - 22:00', '21:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 24:00', '23:30 라스트오더'], ['수', '18:00 - 24:00', '23:30 라스트오더'], ['목', '18:00 - 24:00', '23:30 라스트오더'], ['금', '18:00 - 24:00', '23:30 라스트오더'], ['토', '15:00 - 24:00', '23:30 라스트오더']]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0507-1316-1130</t>
+          <t>0507-1425-2281</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '16:00 - 02:00', '01:00 라스트오더'], ['일', '16:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['일', '16:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '16:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1812,12 +1812,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>철길부산집 망원점</t>
+          <t>서교주담 망원</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1827,157 +1827,157 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 117 . 1층 1-4호</t>
+          <t>서울 마포구 포은로 82 1층</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '17:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '15:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 02:00'], ['토', '15:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0507-1378-8642</t>
+          <t>010-2633-7974</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>사토</t>
+          <t>복덕방내추럴막걸리집</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로16길 53 1층</t>
+          <t>서울 마포구 포은로8길 5</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 01:00', '00:00 라스트오더'], ['월', '18:00 - 01:00', '00:00 라스트오더'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '정기휴무 (매주 목요일)'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '18:00 - 01:00', '00:00 라스트오더']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 24:00', '23:00 라스트오더'], ['목', '18:00 - 24:00', '23:00 라스트오더'], ['금', '18:00 - 24:00', '23:00 라스트오더'], ['토', '16:00 - 24:00', '23:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0507-1346-1630</t>
+          <t>070-8864-1414</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>갑</t>
+          <t>정주일가</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로19길 8 지하1층</t>
+          <t>서울 마포구 포은로8길 5</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작', '펼쳐보기'], [''], ['맛있는녀석들 429회, 23.05.19.', '2023년 5월 19일', ' 경장육사/토마토달걀볶음/땅콩돼지강정']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>010-3838-6160</t>
+          <t>070-8864-1414</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>해금도</t>
+          <t>너랑나랑호프</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로19길 8 지하1층</t>
+          <t>서울 마포구 월드컵로 61</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '16:30 - 02:00'], ['월', '16:30 - 02:00'], ['화', '16:30 - 02:00'], ['수', '16:30 - 02:00'], ['목', '16:30 - 02:00'], ['금', '16:30 - 02:00'], ['토', '16:30 - 02:00'], ['식객허영만의백반기행 15회, 19.09.06.', '2019년 9월 6일', ' 육전/가자미튀김']]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>02-336-7656</t>
+          <t>010-4422-5157</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>로바타 우직</t>
+          <t>미자카야</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 86-1 1층</t>
+          <t>서울 마포구 월드컵로 61</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 01:00', '00:30 라스트오더'], ['월', '18:00 - 01:00', '00:30 라스트오더'], ['화', '18:00 - 01:00', '00:30 라스트오더'], ['수', '18:00 - 01:00', '00:30 라스트오더'], ['목', '18:00 - 01:00', '00:30 라스트오더'], ['금', '18:00 - 01:00', '00:30 라스트오더'], ['토', '17:00 - 01:00', '00:30 라스트오더']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기'], ['식객허영만의백반기행 15회, 19.09.06.', '2019년 9월 6일', ' 육전/가자미튀김']]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0507-1373-7481</t>
+          <t>010-4422-5157</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>망원엣지 망리단길점</t>
+          <t>웅장</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1987,248 +1987,248 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로11길 46-14 parc 39 빌딩 4층</t>
+          <t>서울 마포구 포은로 73 1층</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 24:00', '23:00 라스트오더'], ['월', '15:00 - 01:00', '00:00 라스트오더'], ['화', '정기휴무 (매주 화요일)'], ['수', '15:00 - 01:00', '00:00 라스트오더'], ['목', '15:00 - 01:00', '00:00 라스트오더'], ['금', '15:00 - 01:00', '00:00 라스트오더'], ['토', '14:00 - 01:00', '00:00 라스트오더'], ['- 요청시 영업시간 연장가능합니다. ^^']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 01:00', '00:00 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0507-1376-4504</t>
+          <t>0507-1308-6389</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>주에뉘</t>
+          <t>구운</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로15길 17 1층 주에뉘</t>
+          <t>서울 마포구 포은로 109 102호</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['토(7/8)', '16:00 - 24:00'], ['일(7/9)', '16:00 - 24:00'], ['월(7/10)', '16:00 - 24:00'], ['화', '정기휴무 (매주 화요일)'], ['수(7/12)', '16:00 - 24:00'], ['목(7/13)', '16:00 - 24:00'], ['금', '12:00 - 02:00', '01:30 라스트오더'], ['- 7월 7일~13일은 16:00-24:00 영업합니다:)']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 24:00', '23:00 라스트오더'], ['화', '18:00 - 24:00', '23:00 라스트오더'], ['수', '18:00 - 24:00', '23:00 라스트오더'], ['목', '18:00 - 24:00', '23:00 라스트오더'], ['금', '18:00 - 24:00', '23:00 라스트오더'], ['토', '18:00 - 24:00', '23:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0507-1378-2383</t>
+          <t>02-322-5545</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>위드바틀</t>
+          <t>화월</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로13길 19-23 2층 201호</t>
+          <t>서울 마포구 포은로 109 102호</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 21:00'], ['월', '15:00 - 23:00'], ['화', '15:00 - 23:00'], ['수', '15:00 - 23:00'], ['목', '15:00 - 23:00'], ['금', '15:00 - 24:00'], ['토', '15:00 - 24:00'], ['격주 월요일 정기 휴무']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0507-1459-6040</t>
+          <t>02-322-5545</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>뱃놀이</t>
+          <t>망원 그곳</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로13길 19-23 2층 201호</t>
+          <t>서울 마포구 월드컵로13길 19-19</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '18:00 - 24:00'], ['월', '18:00 - 02:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 03:00'], ['토', '18:00 - 03:00'], ['- 일요일은 01:00 마감']]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0507-1489-7949</t>
+          <t>010-3745-7037</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>아마</t>
+          <t>나나</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로23길 5 반지층</t>
+          <t>서울 마포구 월드컵로13길 19-19</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0507-1310-2620</t>
+          <t>010-3745-7037</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>시장맥주</t>
+          <t>월명식당</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로16길 46 1층 102호</t>
+          <t>서울 마포구 방울내로 66 1층</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 03:00'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00'], ['- 휴무일은 인스타그램 @mw66wm 을 참고해주세요']]</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0507-1319-2841</t>
+          <t>010-5415-3562</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>망원도</t>
+          <t>리파인 망원</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로13길 60 2층</t>
+          <t>서울 마포구 방울내로 66 1층</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0507-1423-2022</t>
+          <t>010-5415-3562</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>슌우</t>
+          <t>꿩먹고알먹고</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75</t>
+          <t>서울 마포구 망원로11길 6 2층</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0507-1377-5285</t>
+          <t>0507-1307-8305</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>철길부산집 망원점</t>
+          <t>트릴로지</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2238,29 +2238,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 117 . 1층 1-4호</t>
+          <t>서울 마포구 망원로11길 6 2층</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '17:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['일', '17:30 - 01:30', '00:30 라스트오더'], ['월', '17:30 - 01:30', '00:30 라스트오더'], ['화', '17:30 - 01:30', '00:30 라스트오더'], ['수', '17:30 - 01:30', '00:30 라스트오더'], ['목', '17:30 - 01:30', '00:30 라스트오더'], ['금', '17:30 - 01:30', '00:30 라스트오더'], ['토', '17:30 - 01:30', '00:30 라스트오더']]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0507-1378-8642</t>
+          <t>0507-1307-8305</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>서교주담 망원</t>
+          <t>살쾡이</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2275,56 +2275,56 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 82 1층</t>
+          <t>서울 마포구 포은로 86-1 1층 103호(망원동)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '15:00 - 02:00'], ['일', '15:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 02:00']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['일', '18:30 - 01:00', '00:00 라스트오더'], ['월', '18:30 - 01:00', '00:00 라스트오더'], ['화', '18:30 - 01:00', '00:00 라스트오더'], ['수', '정기휴무 (매주 수요일)'], ['목', '18:30 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 02:00', '01:00 라스트오더'], ['토', '18:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>010-2633-7974</t>
+          <t>0507-1358-5632</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>복덕방내추럴막걸리집</t>
+          <t>세이슈</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로8길 5</t>
+          <t>서울 마포구 희우정로16길 54-5 2층</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 24:00', '23:00 라스트오더'], ['목', '18:00 - 24:00', '23:00 라스트오더'], ['금', '18:00 - 24:00', '23:00 라스트오더'], ['토', '16:00 - 24:00', '23:00 라스트오더']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['일', '18:00 - 02:00', '01:00 라스트오더'], ['월', '18:00 - 02:00', '01:00 라스트오더'], ['화', '18:00 - 02:00', '01:00 라스트오더'], ['수', '18:00 - 02:00', '01:00 라스트오더'], ['목', '18:00 - 02:00', '01:00 라스트오더'], ['금', '18:00 - 03:00', '02:00 라스트오더'], ['토', '18:00 - 03:00', '02:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>070-8864-1414</t>
+          <t>0507-1352-4083</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>정주일가</t>
+          <t>휴식당</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2334,61 +2334,61 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로8길 5</t>
+          <t>서울 마포구 동교로 43-1 1층 매장전화 부재시 01046342896</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기'], ['놀라운토요일 195회, 22.01.15.', '2022년 1월 15일', ' 차돌된장전골']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 04:00'], ['토', '17:00 - 04:00']]</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0507-1396-4083</t>
+          <t>0507-1355-2896</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>너랑나랑호프</t>
+          <t>PNPV</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로 61</t>
+          <t>서울 마포구 포은로 63 3층</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '16:30 - 02:00'], ['일', '16:30 - 02:00'], ['월', '16:30 - 02:00'], ['화', '16:30 - 02:00'], ['수', '16:30 - 02:00'], ['목', '16:30 - 02:00'], ['금', '16:30 - 02:00'], ['식객허영만의백반기행 15회, 19.09.06.', '2019년 9월 6일', ' 육전/가자미튀김']]</t>
+          <t>[['곧 영업 시작', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['일', '19:00 - 03:00'], ['월', '19:00 - 03:00'], ['화', '19:00 - 03:00'], ['수', '19:00 - 03:00'], ['목', '19:00 - 03:00'], ['금', '19:00 - 03:00'], ['토', '19:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>010-4422-5157</t>
+          <t>0507-1380-6667</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>미자카야</t>
+          <t>트릴토리</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2398,29 +2398,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로 61</t>
+          <t>서울 마포구 망원로7길 54</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기'], [''], ['휴무일', '07/17']]</t>
+          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더'], ['일', '17:30 - 23:30', '22:30 라스트오더'], ['월', '18:30 - 23:30', '22:30 라스트오더'], ['화', '18:30 - 23:30', '22:30 라스트오더'], ['수', '18:30 - 23:30', '22:30 라스트오더'], ['목', '정기휴무 (매주 목요일)'], ['금', '18:30 - 23:30', '22:30 라스트오더'], ['토', '17:30 - 23:30', '22:30 라스트오더']]</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0507-1362-7637</t>
+          <t>010-4939-7496</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>웅장</t>
+          <t>망원양화</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2435,56 +2435,56 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 73 1층</t>
+          <t>서울 마포구 동교로 33-3 1층 망원양화</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 01:00', '00:00 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['일', '17:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '정기휴무 (매주 목요일)'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0507-1308-6389</t>
+          <t>0507-1354-4130</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>구운</t>
+          <t>온밀</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>스파게티,파스타전문</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 109 102호</t>
+          <t>서울 마포구 포은로 84 1층</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 24:00', '23:00 라스트오더'], ['화', '18:00 - 24:00', '23:00 라스트오더'], ['수', '18:00 - 24:00', '23:00 라스트오더'], ['목', '18:00 - 24:00', '23:00 라스트오더'], ['금', '18:00 - 24:00', '23:00 라스트오더'], ['토', '18:00 - 24:00', '23:00 라스트오더']]</t>
+          <t>[['영업 중', '20:40에 라스트오더', '20시 40분에 라스트오더'], ['일', '11:50 - 21:00', '20:40 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '11:50 - 21:00', '20:40 라스트오더'], ['수', '11:50 - 21:00', '20:40 라스트오더'], ['목', '11:50 - 21:00', '20:40 라스트오더'], ['금', '11:50 - 21:00', '20:40 라스트오더'], ['토', '11:50 - 21:00', '20:40 라스트오더']]</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>02-322-5545</t>
+          <t>0507-1382-2771</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>화월</t>
+          <t>철길부산집 망원점</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2494,125 +2494,125 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 109 102호</t>
+          <t>서울 마포구 포은로 117 . 1층 1-4호</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['일', '17:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0507-1359-1716</t>
+          <t>0507-1378-8642</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>망원 그곳</t>
+          <t>오비비어</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75 1층 화월</t>
+          <t>서울 마포구 월드컵로29길 7</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '16:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>010-3745-7037</t>
+          <t>0507-1339-6338</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>나나</t>
+          <t>해진뒤</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로13길 19-19</t>
+          <t>서울 마포구 월드컵로23길 20 2층</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기'], ['']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 21:50'], ['수', '17:00 - 21:50'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 24:00']]</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0507-1348-3237</t>
+          <t>0507-1372-2320</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>월명식당</t>
+          <t>한지</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로20길 75 1층 나나</t>
+          <t>서울 마포구 월드컵로23길 20 2층</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>010-5415-3562</t>
+          <t>0507-1372-2320</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>리파인 망원</t>
+          <t>호아</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2622,93 +2622,93 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>서울 마포구 방울내로 66 1층</t>
+          <t>서울 마포구 희우정로16길 17 지층</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '21:00에 영업 종료', '21시 0분에 영업 종료'], ['일(7/9)', '15:00 - 21:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 02:00', '01:00 라스트오더'], ['수', '18:00 - 02:00', '01:00 라스트오더'], ['목', '18:00 - 02:00', '01:00 라스트오더'], ['금', '18:00 - 02:00', '01:00 라스트오더'], ['토', '14:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0507-1346-3024</t>
+          <t>0507-1307-5938</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>꿩먹고알먹고</t>
+          <t>오복수산시장</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로11길 6 2층</t>
+          <t>서울 마포구 포은로 78 1층 오복수산시장</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[['곧 영업 종료', '01:30에 영업 종료', '1시 30분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['일', '17:00 - 01:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00']]</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0507-1307-8305</t>
+          <t>0507-1312-9873</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>트릴로지</t>
+          <t>하이에나</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로11길 6 2층</t>
+          <t>서울 마포구 포은로 78 1층 오복수산시장</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[['영업 종료', '20:00에 영업 시작', '20시 0분에 영업 시작', '펼쳐보기']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0507-1373-1799</t>
+          <t>0507-1312-9873</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>살쾡이</t>
+          <t>주로</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2723,221 +2723,221 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 86-1 1층 103호(망원동)</t>
+          <t>서울 마포구 월드컵로19길 42 2층</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '18:00 - 02:00', '01:00 라스트오더'], ['일', '18:30 - 01:00', '00:00 라스트오더'], ['월', '18:30 - 01:00', '00:00 라스트오더'], ['화', '18:30 - 01:00', '00:00 라스트오더'], ['수', '정기휴무 (매주 수요일)'], ['목', '18:30 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['일', '17:30 - 01:00', '00:00 라스트오더'], ['월', '17:30 - 01:00', '00:00 라스트오더'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:30 - 01:00', '00:00 라스트오더'], ['목', '17:30 - 01:00', '00:00 라스트오더'], ['금', '17:30 - 02:00', '01:00 라스트오더'], ['토', '17:30 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0507-1358-5632</t>
+          <t>0507-1355-1575</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>세이슈</t>
+          <t>녹턴사카바</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로16길 54-5 2층</t>
+          <t>서울 마포구 동교로 37</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더'], ['토', '18:00 - 03:00', '02:00 라스트오더'], ['일', '18:00 - 02:00', '01:00 라스트오더'], ['월', '18:00 - 02:00', '01:00 라스트오더'], ['화', '18:00 - 02:00', '01:00 라스트오더'], ['수', '18:00 - 02:00', '01:00 라스트오더'], ['목', '18:00 - 02:00', '01:00 라스트오더'], ['금', '18:00 - 03:00', '02:00 라스트오더']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['일', '17:00 - 01:00'], ['월', '18:00 - 01:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00'], ['토', '17:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0507-1352-4083</t>
+          <t>02-336-0710</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>휴식당</t>
+          <t>노스터</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 43-1 1층 매장전화 부재시 01046342896</t>
+          <t>서울 마포구 동교로 37</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['토', '17:00 - 04:00'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 04:00']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0507-1355-2896</t>
+          <t>02-336-0710</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PNPV</t>
+          <t>프로그</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 63 3층</t>
+          <t>서울 마포구 포은로 61</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '19:00 - 03:00'], ['일', '19:00 - 03:00'], ['월', '19:00 - 03:00'], ['화', '19:00 - 03:00'], ['수', '19:00 - 03:00'], ['목', '19:00 - 03:00'], ['금', '19:00 - 03:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 24:00'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 24:00'], ['토', '18:00 - 24:00']]</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0507-1380-6667</t>
+          <t>0507-1328-4360</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>트릴토리</t>
+          <t>호랑이 라운지</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로7길 54</t>
+          <t>서울 마포구 포은로 61</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:30에 영업 시작', '17시 30분에 영업 시작'], ['일', '17:30 - 23:30', '22:30 라스트오더'], ['월', '18:30 - 23:30', '22:30 라스트오더'], ['화', '18:30 - 23:30', '22:30 라스트오더'], ['수', '18:30 - 23:30', '22:30 라스트오더'], ['목', '정기휴무 (매주 목요일)'], ['금', '18:30 - 23:30', '22:30 라스트오더'], ['토', '17:30 - 23:30', '22:30 라스트오더']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>010-4939-7496</t>
+          <t>0507-1328-4360</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>망원양화</t>
+          <t>공작</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 33-3 1층 망원양화</t>
+          <t>서울 마포구 희우정로12길 23 1층 101호</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '17:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '정기휴무 (매주 목요일)'], ['금', '17:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '17:30 - 24:00'], ['월', '18:30 - 24:00'], ['화', '18:30 - 24:00'], ['수', '18:30 - 24:00'], ['목', '18:30 - 24:00'], ['금', '18:30 - 24:00'], ['토', '17:30 - 24:00']]</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0507-1354-4130</t>
+          <t>0507-1422-0227</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>서교주담 망원</t>
+          <t>꼬치주간</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>오뎅,꼬치</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 82 1층</t>
+          <t>서울 마포구 희우정로12길 23 1층 101호</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '15:00 - 02:00'], ['일', '15:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 02:00']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>010-2633-7974</t>
+          <t>0507-1422-0227</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>반주</t>
+          <t>나이트엔데이</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2947,152 +2947,152 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로19길 18 2층</t>
+          <t>서울 마포구 희우정로10길 15 상가동 112호, 113호</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '18:00 - 02:00'], ['일', '18:00 - 24:00'], ['월', '18:00 - 01:00'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00'], ['- 자세한 사항은 인스타로 공지합니다']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '12:00 - 02:00'], ['월', '12:00 - 24:00'], ['화', '12:00 - 24:00'], ['수', '12:00 - 24:00'], ['목', '12:00 - 24:00'], ['금', '12:00 - 02:00'], ['토', '12:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0507-1426-3231</t>
+          <t>0507-1435-9942</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>오비비어</t>
+          <t>단바 서울</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로29길 7</t>
+          <t>서울 마포구 망원로2길 87 1층</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '16:00 - 03:00']]</t>
+          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더'], ['일', '14:00 - 05:00', '04:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '19:00 - 05:00', '04:00 라스트오더'], ['수', '19:00 - 05:00', '04:00 라스트오더'], ['목', '19:00 - 05:00', '04:00 라스트오더'], ['금', '19:00 - 05:00', '04:00 라스트오더'], ['토', '14:00 - 05:00', '04:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0507-1339-6338</t>
+          <t>0507-1351-4149</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>호아</t>
+          <t>망원엣지 망리단길점</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로16길 17 지층</t>
+          <t>서울 마포구 망원로2길 87 1층</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '14:00 - 02:00', '01:00 라스트오더'], ['일', '14:00 - 02:00', '01:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 02:00', '01:00 라스트오더'], ['수', '18:00 - 02:00', '01:00 라스트오더'], ['목', '18:00 - 02:00', '01:00 라스트오더'], ['금', '18:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더'], ['일', '14:00 - 05:00', '04:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '19:00 - 05:00', '04:00 라스트오더'], ['수', '19:00 - 05:00', '04:00 라스트오더'], ['목', '19:00 - 05:00', '04:00 라스트오더'], ['금', '19:00 - 05:00', '04:00 라스트오더'], ['토', '14:00 - 05:00', '04:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0507-1307-5938</t>
+          <t>0507-1351-4149</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>해진뒤</t>
+          <t>시장맥주</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로23길 20 2층</t>
+          <t>서울 마포구 월드컵로13길 60 2층</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 21:50'], ['수', '17:00 - 21:50'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 24:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 01:00', '00:30 라스트오더'], ['화', '18:00 - 01:00', '00:30 라스트오더'], ['수', '18:00 - 01:00', '00:30 라스트오더'], ['목', '18:00 - 01:00', '00:30 라스트오더'], ['금', '18:00 - 01:00', '00:30 라스트오더'], ['토', '18:00 - 01:00', '00:30 라스트오더']]</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0507-1372-2320</t>
+          <t>0507-1319-2841</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>한지</t>
+          <t>케그샵 프리미엄수제맥주&amp;전통주 셀렉샵 망원한강점</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로23길 20 2층</t>
+          <t>서울 마포구 월드컵로13길 60 2층</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>02-6082-2341</t>
+          <t>0507-1319-2841</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>오복수산시장</t>
+          <t>리틀스탠드레몽</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3102,125 +3102,125 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 78 1층 오복수산시장</t>
+          <t>서울 마포구 방울내로 24-1 1층</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+          <t>[['영업 중', '23:00에 영업 종료', '23시 0분에 영업 종료'], ['일', '15:00 - 23:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '15:00 - 23:00'], ['수', '15:00 - 23:00'], ['목', '15:00 - 23:00'], ['금', '15:00 - 23:00'], ['토', '15:00 - 23:00']]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0507-1312-9873</t>
+          <t>0507-1376-4535</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>하이에나</t>
+          <t>선술집 순</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 78 1층 오복수산시장</t>
+          <t>서울 마포구 월드컵로15길 40 선술집 순</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['영업 중', '02:30에 라스트오더', '2시 30분에 라스트오더'], ['일', '18:00 - 04:00', '02:30 라스트오더'], ['월', '18:00 - 04:00', '02:30 라스트오더'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 04:00', '02:30 라스트오더'], ['목', '18:00 - 04:00', '02:30 라스트오더'], ['금', '18:00 - 04:00', '02:30 라스트오더'], ['토', '18:00 - 04:00', '02:30 라스트오더']]</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>070-4042-1536</t>
+          <t>0507-1389-4045</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>주로</t>
+          <t>역전할머니맥주 망원점</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로19길 12 2층</t>
+          <t>서울 마포구 동교로9길 51</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '17:30 - 02:00', '01:00 라스트오더'], ['일', '17:30 - 01:00', '00:00 라스트오더'], ['월', '17:30 - 01:00', '00:00 라스트오더'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:30 - 01:00', '00:00 라스트오더'], ['목', '17:30 - 01:00', '00:00 라스트오더'], ['금', '17:30 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['일', '16:00 - 05:00'], ['월', '17:00 - 05:00'], ['화', '17:00 - 05:00'], ['수', '17:00 - 05:00'], ['목', '17:00 - 05:00'], ['금', '17:00 - 05:00'], ['토', '16:00 - 05:00']]</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0507-1355-1575</t>
+          <t>02-332-1984</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>녹턴사카바</t>
+          <t>루바토와인</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 37</t>
+          <t>서울 마포구 동교로9길 51</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>02-336-0710</t>
+          <t>02-332-1984</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>노스터</t>
+          <t>아루감</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3230,29 +3230,29 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 37</t>
+          <t>서울 마포구 월드컵로19길 8 2,3층</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '16:00 - 24:00'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00'], ['토', '16:00 - 02:00'], ['- 여름휴가안내 2022.09.04-2022.09.09']]</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0507-1478-5456</t>
+          <t>0507-1406-3213</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>프로그</t>
+          <t>소파</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3262,29 +3262,29 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 61</t>
+          <t>서울 마포구 월드컵로19길 8 2,3층</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 24:00'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 24:00'], ['토', '18:00 - 24:00']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0507-1328-4360</t>
+          <t>0507-1406-3213</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>호랑이 라운지</t>
+          <t>살롱드낭만</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3294,108 +3294,108 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 61</t>
+          <t>서울 마포구 월드컵로23길 20 1층 오른쪽</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['곧 영업 시작', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['일', '19:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '19:00 - 03:00'], ['수', '19:00 - 03:00'], ['목', '19:00 - 03:00'], ['금', '19:00 - 03:00'], ['토', '19:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0507-1467-1614</t>
+          <t>0507-1337-8684</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>공작</t>
+          <t>더파인트</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로12길 23 1층 101호</t>
+          <t>서울 마포구 월드컵로23길 20 1층 오른쪽</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:30에 영업 시작', '17시 30분에 영업 시작'], ['일', '17:30 - 24:00'], ['월', '18:30 - 24:00'], ['화', '18:30 - 24:00'], ['수', '18:30 - 24:00'], ['목', '18:30 - 24:00'], ['금', '18:30 - 24:00'], ['토', '17:30 - 24:00']]</t>
+          <t>[['곧 영업 시작', '19:00에 영업 시작', '19시 0분에 영업 시작', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0507-1422-0227</t>
+          <t>0507-1337-8684</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>꼬치주간</t>
+          <t>부산본가</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>오뎅,꼬치</t>
+          <t>전통,민속주점</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로12길 23 1층 101호</t>
+          <t>서울 마포구 망원로 7-1</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '18:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0507-1344-9599</t>
+          <t>010-8461-6611</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>나이트엔데이</t>
+          <t>홍타하우스</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 70-1</t>
+          <t>서울 마포구 망원로 7-1</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3405,174 +3405,174 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0507-1435-9942</t>
+          <t>010-8461-6611</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>단바 서울</t>
+          <t>반주</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로2길 87 1층</t>
+          <t>서울 마포구 월드컵로19길 18 2층</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더'], ['토', '13:00 - 05:00', '04:00 라스트오더'], ['일', '13:00 - 05:00', '04:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '19:00 - 05:00', '04:00 라스트오더'], ['수', '19:00 - 05:00', '04:00 라스트오더'], ['목', '19:00 - 05:00', '04:00 라스트오더'], ['금', '19:00 - 05:00', '04:00 라스트오더']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '18:00 - 24:00'], ['월', '18:00 - 01:00'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00'], ['- 자세한 사항은 인스타로 공지합니다']]</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0507-1351-4149</t>
+          <t>0507-1426-3231</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>선술집 위군</t>
+          <t>포도당</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로2길 87 1층</t>
+          <t>서울 마포구 포은로 142 CM빌딩 1층</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '17:00 - 02:00'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00'], ['토', '17:00 - 02:00'], ['- 불특정휴무']]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>02-6083-5628</t>
+          <t>0507-1380-6612</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>시러스</t>
+          <t>오코노미야키골드</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 74 1층</t>
+          <t>서울 마포구 포은로 142 CM빌딩 1층</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작', '펼쳐보기'], [''], ['휴무일', '07/11, 07/18']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0507-1316-1130</t>
+          <t>0507-1380-6612</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>슌우</t>
+          <t>글래스트레인</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 63 1층</t>
+          <t>서울 마포구 포은로 61 1층</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '16:00 - 02:00', '01:00 라스트오더'], ['일', '16:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['곧 영업 시작', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['매일', '19:00 - 01:00']]</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0507-1377-5285</t>
+          <t>0507-1355-9059</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>철길부산집 망원점</t>
+          <t>나들목빈대떡</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>전통,민속주점</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 117 . 1층 1-4호</t>
+          <t>서울 마포구 포은로 61 1층</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '17:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['곧 영업 시작', '19:00에 영업 시작', '19시 0분에 영업 시작', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0507-1378-8642</t>
+          <t>0507-1355-9059</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>사토</t>
+          <t>섬</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3582,29 +3582,29 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로16길 53 1층</t>
+          <t>서울 마포구 희우정로 103</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 01:00', '00:00 라스트오더'], ['월', '18:00 - 01:00', '00:00 라스트오더'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '정기휴무 (매주 목요일)'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '18:00 - 01:00', '00:00 라스트오더']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['일', '17:00 - 03:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00'], ['- 매주월요일']]</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0507-1346-1630</t>
+          <t>010-8955-3600</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>갑</t>
+          <t>코지식탁</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3614,130 +3614,130 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로19길 8 지하1층</t>
+          <t>서울 마포구 희우정로 103</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 23:30'], ['월', '18:00 - 24:00'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '17:30 - 01:00'], ['토', '17:30 - 01:00'], ['- 토요일은 조금 더 일찍 오픈합니다. 미리 전화문의주세요'], ['맛있는녀석들 429회, 23.05.19.', '2023년 5월 19일', ' 경장육사/토마토달걀볶음/땅콩돼지강정']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>010-3838-6160</t>
+          <t>010-8955-3600</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>해금도</t>
+          <t>망원바이브</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로19길 8 지하1층</t>
+          <t>서울 마포구 희우정로 70 지층 1호</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+          <t>[['영업 중', '21:30에 라스트오더', '21시 30분에 라스트오더'], ['일', '14:00 - 22:00', '21:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '14:00 - 22:00', '21:30 라스트오더'], ['수', '14:00 - 22:00', '21:30 라스트오더'], ['목', '14:00 - 22:00', '21:30 라스트오더'], ['금', '14:00 - 22:00', '21:30 라스트오더'], ['토', '14:00 - 22:00', '21:30 라스트오더'], ['- 대관&amp;이벤트행사에는영업시간이나 휴무일이 달라질수있습니다']]</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>02-336-7656</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>로바타 우직</t>
+          <t>초쿤바</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 86-1 1층</t>
+          <t>서울 마포구 망원로6길 49 2층</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 01:00', '00:30 라스트오더'], ['월', '18:00 - 01:00', '00:30 라스트오더'], ['화', '18:00 - 01:00', '00:30 라스트오더'], ['수', '18:00 - 01:00', '00:30 라스트오더'], ['목', '18:00 - 01:00', '00:30 라스트오더'], ['금', '18:00 - 01:00', '00:30 라스트오더'], ['토', '17:00 - 01:00', '00:30 라스트오더']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['일', '18:00 - 01:00'], ['월', '19:00 - 01:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '19:00 - 02:00'], ['목', '19:00 - 02:00'], ['금', '19:00 - 02:00'], ['토', '18:00 - 02:00'], ['- * 둘째주 넷째주 수요일은 휴무 입니다.']]</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0507-1373-7481</t>
+          <t>0507-1494-7017</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>망원엣지 망리단길점</t>
+          <t>코멘터리사운드 와인샵 &amp; 와인바</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로11길 46-14 parc 39 빌딩 4층</t>
+          <t>서울 마포구 망원로6길 49 2층</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 24:00', '23:00 라스트오더'], ['월', '15:00 - 01:00', '00:00 라스트오더'], ['화', '정기휴무 (매주 화요일)'], ['수', '15:00 - 01:00', '00:00 라스트오더'], ['목', '15:00 - 01:00', '00:00 라스트오더'], ['금', '15:00 - 01:00', '00:00 라스트오더'], ['토', '14:00 - 01:00', '00:00 라스트오더'], ['- 요청시 영업시간 연장가능합니다. ^^']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0507-1376-4504</t>
+          <t>0507-1494-7017</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>주에뉘</t>
+          <t>스윗브릿지</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3747,103 +3747,103 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로15길 17 1층 주에뉘</t>
+          <t>서울 마포구 마포나루길 435 3층 302호</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['토(7/8)', '16:00 - 24:00'], ['일(7/9)', '16:00 - 24:00'], ['월(7/10)', '16:00 - 24:00'], ['화', '정기휴무 (매주 화요일)'], ['수(7/12)', '16:00 - 24:00'], ['목(7/13)', '16:00 - 24:00'], ['금', '12:00 - 02:00', '01:30 라스트오더'], ['- 7월 7일~13일은 16:00-24:00 영업합니다:)']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 24:00'], ['- 매장 사정으로 임시휴업을 실시하게 되었습니다.']]</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0507-1378-2383</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>위드바틀</t>
+          <t>크라운호프 망원점</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로13길 19-23 2층 201호</t>
+          <t>서울 마포구 월드컵로 133 1층</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 21:00'], ['월', '15:00 - 23:00'], ['화', '15:00 - 23:00'], ['수', '15:00 - 23:00'], ['목', '15:00 - 23:00'], ['금', '15:00 - 24:00'], ['토', '15:00 - 24:00'], ['격주 월요일 정기 휴무']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00'], ['- 가게 사정에 따라 변동될 수 있습니다.']]</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0507-1459-6040</t>
+          <t>0507-1381-0725</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>뱃놀이</t>
+          <t>포트앤나달</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로13길 19-23 2층 201호</t>
+          <t>서울 마포구 월드컵로23길 19 2층</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '05:00 - 06:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '정기휴무 (매주 수요일)'], ['목', '정기휴무 (매주 목요일)'], ['금', '정기휴무 (매주 금요일)'], ['토', '정기휴무 (매주 토요일)']]</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0507-1489-7949</t>
+          <t>0507-1319-7793</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>아마</t>
+          <t>즐거운포차</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로23길 5 반지층</t>
+          <t>서울 마포구 월드컵로23길 19 2층</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3853,78 +3853,78 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0507-1310-2620</t>
+          <t>0507-1319-7793</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>시장맥주</t>
+          <t>낮도깨비 밤도깨비</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로16길 46 1층 102호</t>
+          <t>서울 마포구 월드컵로15길 76 1층</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+          <t>[['영업 종료', '12:00에 영업 시작', '12시 0분에 영업 시작'], ['일', '12:00 - 18:00', '17:00 라스트오더'], ['월', '12:00 - 23:00', '22:00 라스트오더'], ['화', '정기휴무 (매주 화요일)'], ['수', '12:00 - 23:00', '22:00 라스트오더'], ['목', '12:00 - 23:00', '22:00 라스트오더'], ['금', '12:00 - 23:00', '22:00 라스트오더'], ['토', '12:00 - 23:00', '22:00 라스트오더'], ['- 화~토 낮도깨비 18시까지.밤도깨비(낮도깨비시간에도 이용가능) 예약시 23시까지입니다']]</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0507-1319-2841</t>
+          <t>0507-1339-9807</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>망원도</t>
+          <t>새벽애 샹들리에포차</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로13길 60 2층</t>
+          <t>서울 마포구 월드컵로15길 76 1층</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 종료', '12:00에 영업 시작', '12시 0분에 영업 시작', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0507-1423-2022</t>
+          <t>0507-1339-9807</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>망원연속체</t>
+          <t>라비앙로즈</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3934,29 +3934,29 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75</t>
+          <t>서울 마포구 동교로9길 48 베스트힐 4층</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작', '펼쳐보기'], ['']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '19:00 - 02:00', '01:30 라스트오더'], ['화', '19:00 - 02:00', '01:30 라스트오더'], ['수', '19:00 - 02:00', '01:30 라스트오더'], ['목', '19:00 - 02:00', '01:30 라스트오더'], ['금', '19:00 - 03:00', '02:30 라스트오더'], ['토', '19:00 - 03:00', '02:30 라스트오더'], ['- 매월 첫째주 셋째주 일요일 휴무입니다🙏']]</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0507-1394-3845</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>케그샵 프리미엄수제맥주&amp;전통주 셀렉샵 망원한강점</t>
+          <t>볼링</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3966,93 +3966,93 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로 1 6호 (102호)</t>
+          <t>서울 마포구 방울내로7길 5</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['일', '15:00 - 01:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:30 - 02:00'], ['수', '17:30 - 02:00'], ['목', '17:30 - 02:00'], ['금', '17:30 - 02:00'], ['토', '15:00 - 01:00'], ['- 4월 30일 가오픈 예정입니다']]</t>
+          <t>[['곧 영업 시작', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['일', '19:00 - 02:00'], ['월', '19:00 - 02:00'], ['화', '19:00 - 02:00'], ['수', '정기휴무 (매주 수요일)'], ['목', '19:00 - 02:00'], ['금', '19:00 - 02:00'], ['토', '19:00 - 02:00'], ['- 가끔 비정규적으로 쉽니다.']]</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0507-1421-6204</t>
+          <t>02-324-0928</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>선술집 순</t>
+          <t>바코드포차</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로15길 40 선술집 순</t>
+          <t>서울 마포구 방울내로7길 5</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:30에 라스트오더', '2시 30분에 라스트오더'], ['토', '18:00 - 04:00', '02:30 라스트오더'], ['일', '18:00 - 04:00', '02:30 라스트오더'], ['월', '18:00 - 04:00', '02:30 라스트오더'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 04:00', '02:30 라스트오더'], ['목', '18:00 - 04:00', '02:30 라스트오더'], ['금', '18:00 - 04:00', '02:30 라스트오더']]</t>
+          <t>[['곧 영업 시작', '19:00에 영업 시작', '19시 0분에 영업 시작', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0507-1389-4045</t>
+          <t>02-324-0928</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>루바토와인</t>
+          <t>깡포차</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로19길 95 1층</t>
+          <t>서울 마포구 월드컵로 133</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['매일', '18:00 - 05:00']]</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>010-2135-9450</t>
+          <t>0507-1307-4374</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>역전할머니맥주 망원점</t>
+          <t>치꼬뱅</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4062,12 +4062,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로19길 95 1층</t>
+          <t>서울 마포구 월드컵로 133</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4077,78 +4077,78 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>02-332-1984</t>
+          <t>0507-1307-4374</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>아루감</t>
+          <t>진가식탁</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로9길 51</t>
+          <t>서울 마포구 월드컵로21길 18 지층</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기'], ['식객허영만의백반기행 15회, 19.09.06.', '2019년 9월 6일', ' 오늘의정식']]</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0507-1406-3213</t>
+          <t>02-323-4545</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>리틀스탠드레몽</t>
+          <t>망원튀맥집</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로19길 8 2,3층</t>
+          <t>서울 마포구 월드컵로21길 18 지층</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작', '펼쳐보기']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '11:30 - 23:00', '16:00 - 18:00 브레이크타임', '22:00 라스트오더'], ['화', '11:30 - 23:00', '16:00 - 18:00 브레이크타임', '22:00 라스트오더'], ['수', '11:30 - 23:00', '16:00 - 18:00 브레이크타임', '22:00 라스트오더'], ['목', '11:30 - 23:00', '16:00 - 18:00 브레이크타임', '22:00 라스트오더'], ['금', '11:30 - 23:00', '16:00 - 18:00 브레이크타임', '22:00 라스트오더'], ['토', '16:00 - 23:00', '22:00 라스트오더'], ['식객허영만의백반기행 15회, 19.09.06.', '2019년 9월 6일', ' 오늘의정식']]</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0507-1376-4535</t>
+          <t>02-323-4545</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>살롱드낭만</t>
+          <t>101호</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4158,290 +4158,290 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로23길 20 1층 오른쪽</t>
+          <t>서울 마포구 희우정로 128 1층 녹색문</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '19:00 - 24:00', '23:30 라스트오더'], ['화', '정기휴무 (매주 화요일)'], ['수', '정기휴무 (매주 수요일)'], ['목', '정기휴무 (매주 목요일)'], ['금', '정기휴무 (매주 금요일)'], ['토', '정기휴무 (매주 토요일)'], ['- 변동될수있어요. 인스타그램 참고해주세요']]</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0507-1337-8684</t>
+          <t>02-3143-1015</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>더파인트</t>
+          <t>방랑</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로23길 20 1층 오른쪽</t>
+          <t>서울 마포구 희우정로 128 1층 녹색문</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0507-1316-0410</t>
+          <t>02-3143-1015</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>반주</t>
+          <t>건어물라운지</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로19길 18 2층</t>
+          <t>서울 마포구 포은로 105</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '18:00 - 02:00'], ['일', '18:00 - 24:00'], ['월', '18:00 - 01:00'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00'], ['- 자세한 사항은 인스타로 공지합니다']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '17:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>0507-1426-3231</t>
+          <t>0507-1423-8955</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>부산본가</t>
+          <t>빌라마리아나</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>전통,민속주점</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 마포구 포은로 105</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1423-8955</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>글래스트레인</t>
+          <t>골목집</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 61 1층</t>
+          <t>서울 마포구 방울내로 74</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[['영업 종료', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['매일', '19:00 - 01:00']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['매일', '17:00 - 01:00']]</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0507-1355-9059</t>
+          <t>02-336-7501</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>포도당</t>
+          <t>세르베자 망원점</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 61 1층</t>
+          <t>서울 마포구 월드컵로13길 60 2층</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 01:00', '00:30 라스트오더'], ['화', '18:00 - 01:00', '00:30 라스트오더'], ['수', '18:00 - 01:00', '00:30 라스트오더'], ['목', '18:00 - 01:00', '00:30 라스트오더'], ['금', '18:00 - 01:00', '00:30 라스트오더'], ['토', '18:00 - 01:00', '00:30 라스트오더']]</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0507-1380-6612</t>
+          <t>0507-1319-2841</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>홍타하우스</t>
+          <t>Slow Supper Club</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 142 CM빌딩 1층</t>
+          <t>서울 마포구 포은로6길 39 . 1층 104호(망원동)</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더'], ['일', '12:00 - 24:00', '15:30 - 17:00 브레이크타임', '23:30 라스트오더'], ['월', '19:00 - 24:00', '23:30 라스트오더'], ['화', '19:00 - 24:00', '23:30 라스트오더'], ['수', '정기휴무 (매주 수요일)'], ['목', '19:00 - 24:00', '23:30 라스트오더'], ['금', '19:00 - 24:00', '23:30 라스트오더'], ['토', '12:00 - 24:00', '15:30 - 17:00 브레이크타임', '23:30 라스트오더']]</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0507-1312-8097</t>
+          <t>0507-1388-1194</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>초쿤바</t>
+          <t>만나포차</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로6길 49 2층</t>
+          <t>서울 마포구 망원로 94</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>0507-1494-7017</t>
+          <t>02-326-0141</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>오코노미야키골드</t>
+          <t>망원술집</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로6길 49 2층</t>
+          <t>서울 마포구 월드컵로 99-1 1층 망원술집</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+          <t>[['영업 중', '02:20에 라스트오더', '2시 20분에 라스트오더'], ['매일', '16:00 - 03:00', '02:20 라스트오더']]</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>0507-1325-8615</t>
+          <t>0507-1311-9278</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>소파</t>
+          <t>뚱이네포차스트렁큰</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4451,56 +4451,56 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로10길 15 103호</t>
+          <t>서울 마포구 방울내로 65</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['토', '18:00 - 02:00', '01:30 라스트오더'], ['일', '18:00 - 02:00', '01:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 02:00', '01:30 라스트오더'], ['수', '18:00 - 02:00', '01:30 라스트오더'], ['목', '18:00 - 02:00', '01:30 라스트오더'], ['금', '18:00 - 02:00', '01:30 라스트오더']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0507-1371-6091</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>나들목빈대떡</t>
+          <t>리와인드</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>전통,민속주점</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 33</t>
+          <t>서울 마포구 포은로 108 5층</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>02-324-5086</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>망원바이브</t>
+          <t>글렌</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4510,145 +4510,145 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 33</t>
+          <t>서울 마포구 희우정로 77 105호 GLEN</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작', '펼쳐보기'], ['']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1339-1638</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>섬</t>
+          <t>노가리랑 닭발</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로 103</t>
+          <t>서울 마포구 월드컵로 133 1층</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '17:00 - 03:00'], ['일', '17:00 - 03:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['- 매주월요일']]</t>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['매일', '16:00 - 05:00']]</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>010-8955-3600</t>
+          <t>02-336-9233</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>코지식탁</t>
+          <t>한잔두잔</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로 103</t>
+          <t>서울 마포구 월드컵로 133 1층</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0507-1408-2646</t>
+          <t>02-336-9233</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>코멘터리사운드 와인샵 &amp; 와인바</t>
+          <t>머니뭐니</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로23길 18 201호</t>
+          <t>서울 마포구 월드컵로 143</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['일', '15:00 - 22:00', '21:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 24:00', '23:30 라스트오더'], ['수', '18:00 - 24:00', '23:30 라스트오더'], ['목', '18:00 - 24:00', '23:30 라스트오더'], ['금', '18:00 - 24:00', '23:30 라스트오더'], ['토', '15:00 - 24:00', '23:30 라스트오더']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0507-1425-2281</t>
+          <t>02-325-5955</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>스윗브릿지</t>
+          <t>짝태앤노가리 망원점</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>서울 마포구 마포나루길 435 3층 302호</t>
+          <t>서울 마포구 월드컵로 143</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 24:00'], ['- 매장 사정으로 임시휴업을 실시하게 되었습니다.']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4660,39 +4660,39 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>포트앤나달</t>
+          <t>유 포장마차</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로23길 19 2층</t>
+          <t>서울 마포구 방울내로 73</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '05:00 - 06:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '정기휴무 (매주 수요일)'], ['목', '정기휴무 (매주 목요일)'], ['금', '정기휴무 (매주 금요일)'], ['토', '정기휴무 (매주 토요일)']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0507-1319-7793</t>
+          <t>0507-1324-8726</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>즐거운포차</t>
+          <t>유퓨전포차</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4702,61 +4702,61 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로23길 19 2층</t>
+          <t>서울 마포구 방울내로 79</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:30에 영업 종료', '2시 30분에 영업 종료', '펼쳐보기']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>010-5248-0633</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>낮도깨비 밤도깨비</t>
+          <t>P LOUNGE</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 27-1</t>
+          <t>서울 마포구 월드컵로19길 74 어쩌다가게 망원 B104호</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[['영업 종료', '12:00에 영업 시작', '12시 0분에 영업 시작', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '18:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 24:00'], ['토', '18:00 - 24:00']]</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0507-1339-9807</t>
+          <t>070-5121-5628</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>크라운호프 망원점</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4766,221 +4766,221 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로15길 76 1층</t>
+          <t>서울 마포구 포은로 63 1층 술집</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0507-1381-0725</t>
+          <t>010-8569-7833</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>새벽애 샹들리에포차</t>
+          <t>망원옥상</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로9길 57 2층 새벽애</t>
+          <t>서울 마포구 포은로 63 1층 술집</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:30에 라스트오더', '4시 30분에 라스트오더'], ['토', '15:00 - 05:00', '04:30 라스트오더'], ['일', '15:00 - 05:00', '04:30 라스트오더'], ['월', '15:00 - 05:00', '04:30 라스트오더'], ['화', '15:00 - 05:00', '04:30 라스트오더'], ['수', '15:00 - 05:00', '04:30 라스트오더'], ['목', '15:00 - 05:00', '04:30 라스트오더'], ['금', '15:00 - 05:00', '04:30 라스트오더'], ['- 매일 오후3시부터 정상영업합니다']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>02-537-1110</t>
+          <t>010-8564-8858</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>볼링</t>
+          <t>묵을래</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로9길 57 2층 새벽애</t>
+          <t>서울 마포구 포은로 75 1층</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>02-324-0928</t>
+          <t>02-333-2657</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>라비앙로즈</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>서울 마포구 방울내로7길 5</t>
+          <t>서울 마포구 포은로 75 1층</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:30에 라스트오더', '2시 30분에 라스트오더', '펼쳐보기'], ['']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1396-7896</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>바코드포차</t>
+          <t>동신커피앤호프</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75 1층</t>
+          <t>서울 마포구 월드컵로13길 73 지층</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0507-1385-6061</t>
+          <t>02-332-6009</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>깡포차</t>
+          <t>스트렁큰</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75 1층</t>
+          <t>서울 마포구 방울내로 65</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 03:00'], ['화', '18:00 - 03:00'], ['수', '18:00 - 03:00'], ['목', '18:00 - 03:00'], ['금', '18:00 - 03:00'], ['토', '18:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>0507-1307-4374</t>
+          <t>02-325-0424</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>망원튀맥집</t>
+          <t>포레스트인망원</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로 133</t>
+          <t>서울 마포구 방울내로 65</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>[['영업 종료', '11:00에 영업 시작', '11시 0분에 영업 시작', '펼쳐보기']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-325-0424</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>치꼬뱅</t>
+          <t>대한활맥</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4990,29 +4990,29 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로8길 29</t>
+          <t>서울 마포구 월드컵로 117</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>[['영업 종료', '11:30에 영업 시작', '11시 30분에 영업 시작', '펼쳐보기']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0507-1421-2303</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>진가식탁</t>
+          <t>시베리아 빙수</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5022,125 +5022,125 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로21길 18 지층</t>
+          <t>서울 마포구 포은로8길 14</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '11:30 - 23:00', '16:00 - 18:00 브레이크타임', '22:00 라스트오더'], ['화', '11:30 - 23:00', '16:00 - 18:00 브레이크타임', '22:00 라스트오더'], ['수', '11:30 - 23:00', '16:00 - 18:00 브레이크타임', '22:00 라스트오더'], ['목', '11:30 - 23:00', '16:00 - 18:00 브레이크타임', '22:00 라스트오더'], ['금', '11:30 - 23:00', '16:00 - 18:00 브레이크타임', '22:00 라스트오더'], ['토', '16:00 - 23:00', '22:00 라스트오더'], ['식객허영만의백반기행 15회, 19.09.06.', '2019년 9월 6일', ' 오늘의정식']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>02-323-4545</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>방랑</t>
+          <t>망원주유소</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로21길 18 지층</t>
+          <t>서울 마포구 월드컵로 99-1</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작', '펼쳐보기'], ['']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>02-325-5097</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>101호</t>
+          <t>골뱅이와노가리</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>서울 마포구 방울내로 79 1층 방랑</t>
+          <t>서울 마포구 월드컵로25길 26 마포영화블렌하임</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기'], ['']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>02-3143-1015</t>
+          <t>02-3142-1642</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>빌라마리아나</t>
+          <t>여인천하</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>단란주점</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로 128 1층 녹색문</t>
+          <t>서울 마포구 동교로 39</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더', '펼쳐보기']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>0507-1376-5603</t>
+          <t>02-3141-3382</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>건어물라운지</t>
+          <t>큐바</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5150,514 +5150,514 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 105</t>
+          <t>서울 마포구 월드컵로 93 지하1층(망원동)</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '17:00 - 03:00']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>0507-1423-8955</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>골목집</t>
+          <t>BARGLEN</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 105</t>
+          <t>서울 마포구 희우정로 77 105호</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>02-336-7501</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>투다리 망원1점</t>
+          <t>발리 슈퍼스토어</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>오뎅,꼬치</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로9길 34 1층</t>
+          <t>서울 마포구 양화로6길 45 2층</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>070-5111-6601</t>
+          <t>02-323-7871</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>5678 망원동</t>
+          <t>서교주담 합정</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로9길 34 1층</t>
+          <t>서울 마포구 양화로6길 45 2층</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '00:00 - 00:05'], ['화', '정기휴무 (매주 화요일)'], ['수', '정기휴무 (매주 수요일)'], ['목', '정기휴무 (매주 목요일)'], ['금', '정기휴무 (매주 금요일)'], ['토', '정기휴무 (매주 토요일)'], ['- 망원동 졸업! 영업종료 :)']]</t>
+          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더'], ['일', '13:00 - 24:00', '23:30 라스트오더'], ['월', '17:00 - 02:00', '01:30 라스트오더'], ['화', '17:00 - 02:00', '01:30 라스트오더'], ['수', '17:00 - 02:00', '01:30 라스트오더'], ['목', '17:00 - 02:00', '01:30 라스트오더'], ['금', '17:00 - 02:00', '01:30 라스트오더'], ['토', '13:00 - 02:00', '01:30 라스트오더']]</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>0507-1365-5786</t>
+          <t>02-323-7871</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>투다리 망원2점</t>
+          <t>붉은낙타</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>오뎅,꼬치</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로10길 4 2층</t>
+          <t>서울 마포구 잔다리로 20-11 1층 붉은낙타</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['일', '17:00 - 01:00', '00:00 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더'], ['토', '17:00 - 03:00', '02:00 라스트오더'], ['- 에어컨 공사로 인해 이틀 쉬어갑니다 ㅠㅠ']]</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>02-3144-7786</t>
+          <t>070-4833-5965</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>노가리와호프</t>
+          <t>썬키친</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로29길 5 1층 일부</t>
+          <t>서울 마포구 양화로6길 50 2층</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['일', '12:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '12:00 - 24:00', '23:00 라스트오더'], ['수', '12:00 - 24:00', '23:00 라스트오더'], ['목', '12:00 - 24:00', '23:00 라스트오더'], ['금', '12:00 - 24:00', '23:00 라스트오더'], ['토', '12:00 - 24:00', '23:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1338-4681</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>한강가자</t>
+          <t>디엠</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 63 1층</t>
+          <t>서울 마포구 양화로6길 50 2층</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1338-4681</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>남이네포장마차</t>
+          <t>미나리</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로 7</t>
+          <t>서울 마포구 양화로6길 14 1층 코너점포</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '17:00 - 02:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 02:00'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 02:00']]</t>
+          <t>[['영업 중', '11:50에 라스트오더', '11시 50분에 라스트오더'], ['일', '17:00 - 12:30', '11:50 라스트오더'], ['월', '17:00 - 12:30', '11:50 라스트오더'], ['화', '17:00 - 12:30', '11:50 라스트오더'], ['수', '17:00 - 12:30', '11:50 라스트오더'], ['목', '17:00 - 12:30', '11:50 라스트오더'], ['금', '17:00 - 02:00', '01:20 라스트오더'], ['토', '17:00 - 02:00', '01:20 라스트오더']]</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>0507-1437-9295</t>
+          <t>010-9585-7805</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>비어트립</t>
+          <t>홍콩포차</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 37 2층</t>
+          <t>서울 마포구 홍익로3길 44 2층</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료'], ['매일', '16:00 - 06:00']]</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>070-8285-6790</t>
+          <t>0507-1335-4002</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>헤이보틀 와인샵</t>
+          <t>아소토</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 37 2층</t>
+          <t>서울 마포구 독막로2길 34 1층 아소토</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>[['영업 종료', '11:30에 영업 시작', '11시 30분에 영업 시작'], ['일', '11:30 - 22:30'], ['월', '정기휴무 (매주 월요일)'], ['화', '11:30 - 22:30'], ['수', '11:30 - 22:30'], ['목', '11:30 - 22:30'], ['금', '11:30 - 22:30'], ['토', '11:30 - 22:30']]</t>
+          <t>[['영업 중', '21:30에 라스트오더', '21시 30분에 라스트오더'], ['일', '17:00 - 23:00', '21:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 24:00', '22:30 라스트오더'], ['수', '18:00 - 24:00', '22:30 라스트오더'], ['목', '18:00 - 24:00', '22:30 라스트오더'], ['금', '18:00 - 24:00', '22:30 라스트오더'], ['토', '17:00 - 24:00', '22:30 라스트오더'], ['07/18 휴무'], ['- 일요일은 라스트오더 21:50 입니다.']]</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>070-8891-9333</t>
+          <t>0507-1345-9622</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>낯꽃</t>
+          <t>훈민정음 서울합정점</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로29길 6</t>
+          <t>서울 마포구 독막로2길 34 1층 아소토</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '15:00 - 03:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '15:00 - 03:00'], ['화', '15:00 - 03:00'], ['수', '15:00 - 03:00'], ['목', '15:00 - 03:00'], ['금', '15:00 - 03:00']]</t>
+          <t>[['영업 중', '21:30에 라스트오더', '21시 30분에 라스트오더', '펼쳐보기'], [''], [''], ['휴무일', '07/18']]</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>02-336-0594</t>
+          <t>0507-1345-9622</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Slow Supper Club</t>
+          <t>호맥 합정점</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로29길 6</t>
+          <t>서울 마포구 독막로5길 5 대웅빌딩 1층 호맥</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>[['영업 종료', '12:00에 영업 시작', '12시 0분에 영업 시작', '펼쳐보기']]</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>0507-1388-1194</t>
+          <t>02-333-7466</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>세르베자 망원점</t>
+          <t>당인리극장</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로 22 / 2,3층</t>
+          <t>서울 마포구 독막로5길 5 대웅빌딩 1층 호맥</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '18:00 - 02:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00']]</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['일', '14:00 - 01:30', '00:30 라스트오더'], ['월', '16:30 - 01:30', '00:30 라스트오더'], ['화', '16:30 - 01:30', '00:30 라스트오더'], ['수', '16:30 - 01:30', '00:30 라스트오더'], ['목', '16:30 - 01:30', '00:30 라스트오더'], ['금', '16:30 - 02:00', '01:00 라스트오더'], ['토', '14:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>070-4897-2018</t>
+          <t>02-333-7466</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>망원술집</t>
+          <t>지하102호 1호점</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>서울 마포구 망원로 22 / 2,3층</t>
+          <t>서울 마포구 양화로6길 57-22 지층 102호</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:20에 라스트오더', '2시 20분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더'], ['일', '15:00 - 03:00', '02:00 라스트오더'], ['월', '16:00 - 02:00', '01:00 라스트오더'], ['화', '16:00 - 02:00', '01:00 라스트오더'], ['수', '16:00 - 02:00', '01:00 라스트오더'], ['목', '16:00 - 02:00', '01:00 라스트오더'], ['금', '15:00 - 03:00', '02:00 라스트오더'], ['토', '15:00 - 03:00', '02:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>0507-1311-9278</t>
+          <t>0507-1308-8648</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>사뭇</t>
+          <t>낮달</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로19길 74</t>
+          <t>서울 마포구 망원로 22 / 2,3층</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>[['일', '정보없음', '정보없음'], ['일', '정보없음'], ['월', '19:00 - 01:00'], ['화', '19:00 - 01:00'], ['수', '19:00 - 01:00'], ['목', '19:00 - 01:00'], ['금', '19:00 - 01:00'], ['토', '19:00 - 01:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>070-4897-2018</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>만나포차</t>
+          <t>몽주막</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로19길 74</t>
+          <t>서울 마포구 독막로9길 12 1층 몽주막</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['일', '15:30 - 01:00', '00:30 라스트오더'], ['월', '16:00 - 01:00', '00:30 라스트오더'], ['화', '16:00 - 01:00', '00:30 라스트오더'], ['수', '16:00 - 01:00', '00:30 라스트오더'], ['목', '16:00 - 01:00', '00:30 라스트오더'], ['금', '16:00 - 02:30', '02:00 라스트오더'], ['토', '15:00 - 02:30', '02:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>02-326-0141</t>
+          <t>0507-1353-3844</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>뚱이네포차스트렁큰</t>
+          <t>금강산호프</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>서울 마포구 방울내로 65</t>
+          <t>서울 마포구 독막로9길 12 1층 몽주막</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5677,46 +5677,46 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-334-8120</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>리와인드</t>
+          <t>가로수포차</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 108 5층</t>
+          <t>서울 마포구 성지길 18</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>[['오늘 휴무', '매달 2번째 일요일 휴무', '매달 2번째 일요일 휴무'], ['일(7/9)', '정기휴무 (매달 2번째 일요일)'], ['월', '15:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '15:00 - 02:00'], ['매달 2번째 일요일 정기 휴무']]</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-334-8120</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>노가리랑 닭발</t>
+          <t>합정유리</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5726,317 +5726,317 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로 133 1층</t>
+          <t>서울 마포구 양화로6길 99-11 2층</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['매일', '16:00 - 05:00']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['일', '14:00 - 01:00', '00:00 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '14:00 - 01:00', '00:00 라스트오더'], ['- 매주화 / 매월 첫째주 월요일 휴무']]</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>02-336-9233</t>
+          <t>0507-1352-2195</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>글렌</t>
+          <t>사람사는이야기442</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로 133 1층</t>
+          <t>서울 마포구 어울마당로5길 52 사사이</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>0507-1339-1638</t>
+          <t>0507-1337-0442</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>한잔두잔</t>
+          <t>모양</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로9길 37</t>
+          <t>서울 마포구 어울마당로5길 52 사사이</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더'], ['일', '15:30 - 05:00', '04:00 라스트오더'], ['월', '16:30 - 05:00', '04:00 라스트오더'], ['화', '16:30 - 05:00', '04:00 라스트오더'], ['수', '16:30 - 05:00', '04:00 라스트오더'], ['목', '16:30 - 05:00', '04:00 라스트오더'], ['금', '16:30 - 05:00', '04:00 라스트오더'], ['토', '15:30 - 05:00', '04:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>0507-1327-7320</t>
+          <t>0507-1337-0442</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>머니뭐니</t>
+          <t>88양자카야</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로9길 37</t>
+          <t>서울 마포구 독막로3길 28 지층 88양자카야</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '18:00 - 02:00'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>02-325-5955</t>
+          <t>0507-1336-2374</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>짝태앤노가리 망원점</t>
+          <t>모이정</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로 143</t>
+          <t>서울 마포구 독막로3길 28 지층 88양자카야</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1336-2374</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>유 포장마차</t>
+          <t>카사블랑코</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>서울 마포구 방울내로 73</t>
+          <t>서울 마포구 양화로1길 29 1층</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>0507-1324-8726</t>
+          <t>0507-1484-9596</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>P LOUNGE</t>
+          <t>지하102호 2호점</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>서울 마포구 방울내로 79</t>
+          <t>서울 마포구 양화로1길 29 1층</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작', '펼쳐보기']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 02:00'], ['토', '16:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>070-5121-5628</t>
+          <t>0507-1484-9596</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
+          <t>과일가게</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
           <t>술집</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>맥주,호프</t>
-        </is>
-      </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 63 1층 술집</t>
+          <t>서울 마포구 동교로 40</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 01:00'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 01:00'], ['토', '18:00 - 01:00']]</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>010-8569-7833</t>
+          <t>02-336-3859</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>망원옥상</t>
+          <t>세부인보드카</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 63 1층 술집</t>
+          <t>서울 마포구 양화로6길 65 2층</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['일', '15:00 - 03:00'], ['월', '17:00 - 03:00'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '15:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>010-8564-8858</t>
+          <t>02-322-3634</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>유퓨전포차</t>
+          <t>호랑이</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>서울 마포구 방울내로 79</t>
+          <t>서울 마포구 양화로6길 65 2층</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-322-3634</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>묵을래</t>
+          <t>버드폭</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6046,66 +6046,66 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75 1층</t>
+          <t>서울 영등포구 양평로22길 21 1층 A106호</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '11:30 - 23:00', '14:00 - 17:00 브레이크타임', '22:00 라스트오더'], ['화', '11:30 - 23:00', '14:00 - 17:00 브레이크타임', '22:00 라스트오더'], ['수', '11:30 - 23:00', '14:00 - 17:00 브레이크타임', '22:00 라스트오더'], ['목', '11:30 - 23:00', '14:00 - 17:00 브레이크타임', '22:00 라스트오더'], ['금', '11:30 - 23:00', '14:00 - 17:00 브레이크타임', '22:00 라스트오더'], ['토', '17:00 - 23:00', '22:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>02-333-2657</t>
+          <t>0507-1370-0535</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>망치</t>
+          <t>색다른한잔</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 75 1층</t>
+          <t>서울 영등포구 양평로22길 21 1층 A106호</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>0507-1396-7896</t>
+          <t>0507-1370-0535</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>동신커피앤호프</t>
+          <t>철판집</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6115,88 +6115,88 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로 88</t>
+          <t>서울 마포구 독막로3길 24-11 1층 철판집</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['일', '17:00 - 01:30', '00:30 라스트오더'], ['월', '17:00 - 01:30', '00:30 라스트오더'], ['화', '17:00 - 01:30', '00:30 라스트오더'], ['수', '17:00 - 01:30', '00:30 라스트오더'], ['목', '17:00 - 01:30', '00:30 라스트오더'], ['금', '17:00 - 02:30', '01:30 라스트오더'], ['토', '17:00 - 02:30', '01:30 라스트오더'], ['- 2월27일 월요일 임시휴무입니다'], ['신상출시편스토랑 18회, 20.02.28.', '2020년 2월 28일', ' 살치살']]</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>02-332-6009</t>
+          <t>0507-1483-9233</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>스트렁큰</t>
+          <t>별그리는바다</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>서울 마포구 방울내로 65</t>
+          <t>서울 마포구 어울마당로5길 17 1층</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '18:00 - 03:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 03:00'], ['화', '18:00 - 03:00'], ['수', '18:00 - 03:00'], ['목', '18:00 - 03:00'], ['금', '18:00 - 03:00']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 05:00'], ['토', '17:00 - 05:00']]</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>02-325-0424</t>
+          <t>0507-1361-4011</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>포레스트인망원</t>
+          <t>이목</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>서울 마포구 방울내로 65</t>
+          <t>서울 마포구 독막로3길 17 2층</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작', '펼쳐보기']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월', '11:30 - 24:00', '14:30 - 17:00 브레이크타임', '23:00 라스트오더'], ['화', '11:30 - 24:00', '14:30 - 17:00 브레이크타임', '23:00 라스트오더'], ['수', '11:30 - 24:00', '14:30 - 17:00 브레이크타임', '23:00 라스트오더'], ['목', '11:30 - 24:00', '14:30 - 17:00 브레이크타임', '23:00 라스트오더'], ['금', '11:30 - 01:00', '00:00 라스트오더'], ['토', '16:00 - 01:00', '00:00 라스트오더'], ['매달 1, 3, 5번째 일요일 정기 휴무']]</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>0507-1439-5131</t>
+          <t>02-6404-0101</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>시베리아 빙수</t>
+          <t>시소</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6206,98 +6206,98 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로8길 14</t>
+          <t>서울 마포구 독막로3길 17 2층</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-6404-0101</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>대한활맥</t>
+          <t>펍차 아지트</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로 117</t>
+          <t>서울 마포구 동교로 177</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '18:00 - 02:00'], ['월', '18:00 - 02:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 04:00'], ['토', '18:00 - 04:00']]</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>010-6559-2889</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>망원주유소</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로 99-1</t>
+          <t>서울 마포구 동교로 177</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>010-6559-2889</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>골뱅이와노가리</t>
+          <t>술생술사</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6307,71 +6307,71 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로25길 26 마포영화블렌하임</t>
+          <t>서울 마포구 독막로3길 51 술생술사</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더'], ['일', '17:00 - 24:00', '23:30 라스트오더'], ['월', '17:00 - 02:00', '01:30 라스트오더'], ['화', '17:00 - 02:00', '01:30 라스트오더'], ['수', '17:00 - 02:00', '01:30 라스트오더'], ['목', '17:00 - 02:00', '01:30 라스트오더'], ['금', '17:00 - 02:00', '01:30 라스트오더'], ['토', '15:00 - 02:00', '01:30 라스트오더'], ['- *5월 1일, 5월 5일 정상 영업합니다.']]</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>02-3142-1642</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>여인천하</t>
+          <t>노리터</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>단란주점</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 39</t>
+          <t>서울 마포구 독막로7길 23 4층</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '17:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00'], ['- 월, 화요일 휴무일이 공휴일인 경우 정상영업 합니다!']]</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>02-3141-3382</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>큐바</t>
+          <t>아니키</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로 93 지하1층(망원동)</t>
+          <t>서울 마포구 독막로7길 23 4층</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -6381,78 +6381,78 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1355-4684</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>BARGLEN</t>
+          <t>넉탐</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>서울 마포구 희우정로 77 105호</t>
+          <t>서울 마포구 양화로1길 25</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '16:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1345-5640</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>발리 슈퍼스토어</t>
+          <t>꿀벌</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 45 2층</t>
+          <t>서울 마포구 양화로1길 25</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['토', '13:00 - 02:00', '01:30 라스트오더'], ['일', '13:00 - 24:00', '23:30 라스트오더'], ['월', '17:00 - 02:00', '01:30 라스트오더'], ['화', '17:00 - 02:00', '01:30 라스트오더'], ['수', '17:00 - 02:00', '01:30 라스트오더'], ['목', '17:00 - 02:00', '01:30 라스트오더'], ['금', '17:00 - 02:00', '01:30 라스트오더']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '16:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>02-323-7871</t>
+          <t>0507-1345-5640</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>서교주담 합정</t>
+          <t>바코포차</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6462,130 +6462,130 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 45 2층</t>
+          <t>서울 마포구 독막로3길 35 1층</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '18:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>010-5656-9309</t>
+          <t>0507-1368-1337</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>붉은낙타</t>
+          <t>히게쯔라</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>서울 마포구 어울마당로5길 46 1층 서교주담 합정</t>
+          <t>서울 마포구 독막로3길 35 1층</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>070-4833-5965</t>
+          <t>0507-1368-1337</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>썬키친</t>
+          <t>무니</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 50 2층</t>
+          <t>서울 마포구 양화로8길 32-15 1층</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>[['영업 종료', '12:00에 영업 시작', '12시 0분에 영업 시작'], ['일', '12:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '12:00 - 24:00', '23:00 라스트오더'], ['수', '12:00 - 24:00', '23:00 라스트오더'], ['목', '12:00 - 24:00', '23:00 라스트오더'], ['금', '12:00 - 24:00', '23:00 라스트오더'], ['토', '12:00 - 24:00', '23:00 라스트오더']]</t>
+          <t>[['영업 중', '23:15에 라스트오더', '23시 15분에 라스트오더', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>0507-1338-4681</t>
+          <t>070-4100-1510</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>디엠</t>
+          <t>로타리</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 50 2층</t>
+          <t>서울 마포구 양화로8길 32-15 1층</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '23:15에 라스트오더', '23시 15분에 라스트오더'], ['일', '17:30 - 24:00', '23:15 라스트오더'], ['월', '17:30 - 24:00', '23:15 라스트오더'], ['화', '17:30 - 24:00', '23:15 라스트오더'], ['수', '17:30 - 24:00', '23:15 라스트오더'], ['목', '17:30 - 24:00', '23:15 라스트오더'], ['금', '17:30 - 01:00', '00:15 라스트오더'], ['토', '17:30 - 01:00', '00:15 라스트오더'], ['- 휴무시 인스타 공지']]</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>0507-1329-6429</t>
+          <t>070-4100-1510</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>미나리</t>
+          <t>7번방 룸포차</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6595,184 +6595,184 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 14 1층 코너점포</t>
+          <t>서울 마포구 어울마당로 62</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:20에 라스트오더', '1시 20분에 라스트오더'], ['토', '17:00 - 02:00', '01:20 라스트오더'], ['일', '17:00 - 12:30', '11:50 라스트오더'], ['월', '17:00 - 12:30', '11:50 라스트오더'], ['화', '17:00 - 12:30', '11:50 라스트오더'], ['수', '17:00 - 12:30', '11:50 라스트오더'], ['목', '17:00 - 12:30', '11:50 라스트오더'], ['금', '17:00 - 02:00', '01:20 라스트오더']]</t>
+          <t>[['영업 중', '10:00에 영업 종료', '10시 0분에 영업 종료'], ['매일', '15:00 - 10:00']]</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>010-9585-7805</t>
+          <t>0507-1496-3554</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>홍콩포차</t>
+          <t>김씨네심야식당</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>서울 마포구 홍익로3길 44 2층</t>
+          <t>서울 마포구 와우산로3길 28</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료'], ['매일', '16:00 - 06:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 03:00', '02:00 라스트오더'], ['화', '18:00 - 03:00', '02:00 라스트오더'], ['수', '18:00 - 03:00', '02:00 라스트오더'], ['목', '18:00 - 03:00', '02:00 라스트오더'], ['금', '18:00 - 03:00', '02:00 라스트오더'], ['토', '17:00 - 03:00', '02:00 라스트오더'], ['- 매월 세번째 월요일 추가휴무']]</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>0507-1335-4002</t>
+          <t>02-6339-1366</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>아소토</t>
+          <t>형제집</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로2길 34 1층 아소토</t>
+          <t>서울 마포구 와우산로3길 28</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 23:00', '21:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 24:00', '22:30 라스트오더'], ['수', '18:00 - 24:00', '22:30 라스트오더'], ['목', '18:00 - 24:00', '22:30 라스트오더'], ['금', '18:00 - 24:00', '22:30 라스트오더'], ['토', '17:00 - 24:00', '22:30 라스트오더'], ['07/18 휴무'], ['- 일요일은 라스트오더 21:50 입니다.']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>0507-1345-9622</t>
+          <t>02-6339-1366</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>훈민정음 서울합정점</t>
+          <t>합정공감</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로2길 34 1층 아소토</t>
+          <t>서울 마포구 양화로6길 49 2F</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 02:00'], ['토', '16:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>02-336-1447</t>
+          <t>0507-1423-4733</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>호맥 합정점</t>
+          <t>천하의문타로</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로7길 21</t>
+          <t>서울 마포구 월드컵북로4길 19 1층</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['일', '18:00 - 01:00', '00:00 라스트오더'], ['월', '18:00 - 01:00', '00:00 라스트오더'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '18:00 - 01:00', '00:00 라스트오더'], ['07/17-07/18 휴무']]</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>02-333-7466</t>
+          <t>02-336-3009</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>당인리극장</t>
+          <t>그늘</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로5길 5 대웅빌딩 1층 호맥</t>
+          <t>서울 마포구 월드컵북로4길 19 1층</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 라스트오더', '3시 0분에 라스트오더', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기'], [''], ['휴무일', '07/17-07/18']]</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>070-4065-6602</t>
+          <t>02-336-3009</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>지하102호 1호점</t>
+          <t>지하102호 3호점</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6782,29 +6782,29 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 21 2층 당인리극장</t>
+          <t>서울 마포구 양화로6길 57-22 지층 101호</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['일', '14:00 - 05:00'], ['월', '17:00 - 03:00'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '14:00 - 05:00'], ['토', '14:00 - 05:00']]</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>0507-1308-8648</t>
+          <t>0507-1369-4568</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>심야식당 오밤중</t>
+          <t>원나잇</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6814,1910 +6814,54 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 57-22 지층 102호</t>
+          <t>서울 마포구 홍익로3길 44 러쉬 홍대점 건물(호곡빌딩) 5층</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '17:30 - 02:00'], ['월', '17:30 - 02:00'], ['화', '17:30 - 02:00'], ['수', '17:30 - 02:00'], ['목', '17:30 - 02:00'], ['금', '17:30 - 03:00'], ['토', '17:30 - 03:00']]</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>0507-1412-8824</t>
+          <t>0507-1426-0912</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>몽주방</t>
+          <t>정이포장마차</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>서울 마포구 포은로2가길 6 1층</t>
+          <t>서울 마포구 홍익로3길 44 러쉬 홍대점 건물(호곡빌딩) 5층</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:30에 영업 종료', '2시 30분에 영업 종료', '펼쳐보기'], ['줄서는식당 37회, 22.10.10.', '2022년 10월 10일', ' 압력밥솥닭볶음탕/소고기다타키/창난젓크림치즈/통삼겹김치찜']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>0507-1364-7875</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>주무대</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>서울 마포구 와우산로3길 32</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00']]</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>0507-1440-1221</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>조선시대</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>서울 마포구 와우산로3길 32</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료', '펼쳐보기']]</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>0507-1478-1045</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>이키</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>이자카야</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>서울 마포구 성지길 36-20 1층</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '18:00 - 01:00', '00:00 라스트오더'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더']]</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>010-9915-5915</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>깊은숲</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>맥주,호프</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>서울 마포구 독막로 27</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '17:00 - 02:00'], ['일', '17:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00']]</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>0507-1410-6865</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>동동포차DDPC</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>서울 마포구 독막로 27</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>02-336-0358</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>개화기요정</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>서울 마포구 독막로3길 30 1층</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>[['일요일 17:00 - 02:00', '펼쳐보기'], [''], [''], [''], [''], [''], ['']]</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>02-325-6677</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>사카바 토리야</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>이자카야</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>서울 마포구 독막로3길 38 2층</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['토', '17:00 - 02:00', '01:30 라스트오더'], ['일', '17:00 - 02:00', '01:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 02:00', '01:30 라스트오더'], ['수', '18:00 - 02:00', '01:30 라스트오더'], ['목', '18:00 - 02:00', '01:30 라스트오더'], ['금', '17:00 - 02:00', '01:30 라스트오더'], ['- 명절/ 휴가 등 특이사항 휴무일은 인스타그램에 공지해요'], ['생방송투데이 3197회, 22.12.22.', '2022년 12월 22일', ' 일본식닭꼬치']]</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>0507-1353-4741</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>우규</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>이자카야</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>서울 마포구 독막로3길 21 1.5층</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '16:00 - 02:00'], ['일', '16:00 - 02:00'], ['월', '17:00 - 02:00'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 02:00']]</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>0507-1448-3465</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>몽주막</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>서울 마포구 독막로3길 21 1.5층</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더', '펼쳐보기']]</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>0507-1353-3844</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>낮달</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>서울 마포구 독막로5길 8 1층 낮달</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '14:00 - 02:00'], ['일', '14:00 - 01:00'], ['월', '17:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00']]</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>0507-1312-0597</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>금강산호프</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>맥주,호프</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>서울 마포구 독막로5길 8 1층 낮달</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>02-334-8120</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>합정유리</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>서울 마포구 성지길 18</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작', '펼쳐보기'], ['']]</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>0507-1352-2195</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>가로수포차</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>서울 마포구 잔다리로6길 34-13 가로수포차</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>[['영업 중', '02:30에 영업 종료', '2시 30분에 영업 종료'], ['매일', '17:00 - 02:30']]</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>010-7357-2551</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>시소</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>서울 마포구 독막로 43-1 3층 시소</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 01:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00']]</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>0507-1412-8744</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>지하102호 2호점</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>이자카야</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>서울 마포구 독막로 43-1 3층 시소</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료', '펼쳐보기']]</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>0507-1388-8648</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>사람사는이야기442</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>서울 마포구 독막로3길 39 1층</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더', '펼쳐보기']]</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>0507-1337-0442</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>모양</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>서울 마포구 어울마당로5길 52 사사이</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기'], [''], ['생방송투데이 3126회, 22.08.31.', '2022년 8월 31일', ' 불맛한우힘줄볶음']]</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>0507-1383-1032</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>모이정</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>이자카야</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>서울 마포구 성미산로 122 1층</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['매일', '17:00 - 01:00', '00:00 라스트오더']]</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>0507-1381-2885</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>88양자카야</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>이자카야</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>서울 마포구 성미산로 122 1층</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>0507-1336-2374</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>버드폭</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>서울 마포구 독막로3길 28 지층 88양자카야</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>0507-1370-0535</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>카사블랑코</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>맥주,호프</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>서울 영등포구 양평로22길 21 1층 A106호</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>0507-1484-9596</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>호랑이</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>서울 마포구 양화로1길 29 1층</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작', '펼쳐보기']]</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>010-5567-1637</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>세부인보드카</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>서울 마포구 성지3길 23</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>02-322-3634</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>색다른한잔</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>맥주,호프</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>서울 마포구 양화로6길 65 2층</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>070-4222-4198</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>이목</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>서울 마포구 독막로2길 35 1층 색다른한잔</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작', '펼쳐보기'], ['']]</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>02-6404-0101</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>과일가게</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>술집</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>서울 마포구 독막로3길 17 2층</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>02-336-3859</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>철판집</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>서울 마포구 독막로3길 24-11 1층 철판집</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['토', '17:00 - 02:30', '01:30 라스트오더'], ['일', '17:00 - 01:30', '00:30 라스트오더'], ['월', '17:00 - 01:30', '00:30 라스트오더'], ['화', '17:00 - 01:30', '00:30 라스트오더'], ['수', '17:00 - 01:30', '00:30 라스트오더'], ['목', '17:00 - 01:30', '00:30 라스트오더'], ['금', '17:00 - 02:30', '01:30 라스트오더'], ['- 2월27일 월요일 임시휴무입니다'], ['신상출시편스토랑 18회, 20.02.28.', '2020년 2월 28일', ' 살치살']]</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>0507-1483-9233</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>별그리는바다</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>이자카야</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>서울 마포구 어울마당로5길 17 1층</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['토', '17:00 - 05:00'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 05:00']]</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>0507-1361-4011</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>펍차 아지트</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>서울 마포구 동교로 177</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['토', '18:00 - 04:00'], ['일', '18:00 - 02:00'], ['월', '18:00 - 02:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 04:00']]</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>010-6559-2889</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>술생술사</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>서울 마포구 동교로 177</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더', '펼쳐보기'], ['']]</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>무니</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>이자카야</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>서울 마포구 양화로8길 32-15 1층</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>[['영업 종료', '17:30에 영업 시작', '17시 30분에 영업 시작'], ['일', '17:30 - 24:00', '23:15 라스트오더'], ['월', '17:30 - 24:00', '23:15 라스트오더'], ['화', '17:30 - 24:00', '23:15 라스트오더'], ['수', '17:30 - 24:00', '23:15 라스트오더'], ['목', '17:30 - 24:00', '23:15 라스트오더'], ['금', '17:30 - 01:00', '00:15 라스트오더'], ['토', '17:30 - 01:00', '00:15 라스트오더'], ['- 휴무시 인스타 공지']]</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>070-4100-1510</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>노리터</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>서울 마포구 양화로8길 32-15 1층</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>서울 마포구 독막로7길 23 4층</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>0507-1409-0716</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>아니키</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>서울 마포구 어울마당로5길 47 1층</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더'], ['토', '17:00 - 03:00', '02:00 라스트오더'], ['일', '17:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더']]</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>0507-1355-4684</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>넉탐</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>서울 마포구 양화로1길 25</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '16:00 - 02:00']]</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>0507-1345-5640</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>7번방 룸포차</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>포장마차</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>서울 마포구 양화로1길 25</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>[['영업 중', '10:00에 영업 종료', '10시 0분에 영업 종료', '펼쳐보기']]</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>0507-1496-3554</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>히게쯔라</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>이자카야</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>서울 마포구 양화로1길 42 1층</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월', '16:00 - 24:00', '23:00 라스트오더'], ['화', '16:00 - 24:00', '23:00 라스트오더'], ['수', '16:00 - 24:00', '23:00 라스트오더'], ['목', '16:00 - 24:00', '23:00 라스트오더'], ['금', '16:00 - 01:00', '00:00 라스트오더'], ['토', '16:00 - 01:00', '00:00 라스트오더']]</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>0507-1317-4883</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>형제집</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>서울 마포구 포은로 39 1층 형제집</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더', '펼쳐보기']]</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>0507-1489-2230</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>바코포차</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>서울 마포구 포은로 39 1층 형제집</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>0507-1368-1337</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>김씨네심야식당</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>이자카야</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>서울 마포구 독막로3길 35 1층</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더', '펼쳐보기'], ['']]</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>02-6339-1366</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>꿀벌</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>이자카야</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>서울 마포구 와우산로3길 28</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기']]</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>0507-1386-8849</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>로타리</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>이자카야</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>서울 마포구 어울마당로 43 2층</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>[['영업 중', '01:20에 라스트오더', '1시 20분에 라스트오더', '펼쳐보기'], ['']]</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>0507-1385-7823</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>합정공감</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>이자카야</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>서울 마포구 양화로6길 49 2F</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '16:00 - 02:00'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 02:00']]</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>0507-1423-4733</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>지하102호 5호점</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>이자카야</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>서울 마포구 독막로3길 13 1층, 2층, 3층</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>[['영업 중', '05:30에 라스트오더', '5시 30분에 라스트오더'], ['매일', '14:00 - 06:00', '05:30 라스트오더']]</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>0507-1357-1025</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>원나잇</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>서울 마포구 홍익로3길 44 러쉬 홍대점 건물(호곡빌딩) 5층</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>0507-1426-0912</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>정이포장마차</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>포장마차</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>서울 마포구 홍익로3길 44 러쉬 홍대점 건물(호곡빌딩) 5층</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
           <t>0507-1476-1286</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>천하의문타로</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>이자카야</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>서울 마포구 월드컵북로4길 19 1층</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>[['영업 종료', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 01:00', '00:00 라스트오더'], ['월', '18:00 - 01:00', '00:00 라스트오더'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '18:00 - 01:00', '00:00 라스트오더'], ['07/17-07/18 휴무']]</t>
-        </is>
-      </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>02-336-3009</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>지하102호 3호점</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>이자카야</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>서울 마포구 월드컵북로4길 19 1층</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기']]</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>0507-1369-4568</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>그늘</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>서울 마포구 독막로3길 33-3 지1층 그늘</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['매일', '16:00 - 03:00', '01:30 라스트오더']]</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>0507-1341-8480</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>남자식탁</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>이자카야</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>서울 마포구 월드컵로3길 31-8 1층 남자식탁</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:30 - 23:00', '22:00 라스트오더'], ['화', '17:30 - 23:00', '22:00 라스트오더'], ['수', '17:30 - 23:00', '22:00 라스트오더'], ['목', '17:30 - 23:00', '22:00 라스트오더'], ['금', '17:30 - 23:00', '22:00 라스트오더'], ['토', '17:00 - 23:00', '22:00 라스트오더']]</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>0507-1324-3035</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>윤슬</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>서울 마포구 월드컵로3길 31-8 1층 남자식탁</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>[['오늘 휴무', '07/09 휴무', '07/09 휴무', '펼쳐보기'], [''], ['휴무일', '07/23']]</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>02-6081-2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>작가 홍대본점</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>서울 마포구 독막로4길 9 1층 가운데 검정문</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>[['24시간 영업', '연중무휴', '연중무휴', '펼쳐보기']]</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>02-337-5224</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>초월집</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>서울 마포구 독막로7길 45 2층 초월집</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '16:00 - 02:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 02:00']]</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>02-336-3328</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>준지의아름다운하루</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>이자카야</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>서울 마포구 독막로 48 2층</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>[['영업 중', '03:30에 라스트오더', '3시 30분에 라스트오더'], ['토', '18:00 - 04:00', '03:30 라스트오더'], ['일', '18:00 - 04:00', '03:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 04:00', '03:30 라스트오더'], ['수', '18:00 - 04:00', '03:30 라스트오더'], ['목', '18:00 - 04:00', '03:30 라스트오더'], ['금', '18:00 - 04:00', '03:30 라스트오더']]</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>02-3144-6760</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>돌포차 Dorrr</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>서울 마포구 독막로 48 2층</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료', '펼쳐보기']]</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>0507-1360-0536</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>추자로557</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>이자카야</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>서울 마포구 양화로8길 14</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:30 - 24:00'], ['화', '17:30 - 24:00'], ['수', '17:30 - 24:00'], ['목', '17:30 - 24:00'], ['금', '17:30 - 24:00'], ['토', '17:30 - 24:00']]</t>
-        </is>
-      </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>0507-1355-5575</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>파리아저씨</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>서울 마포구 양화로8길 14</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
-        </is>
-      </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>0507-1373-3311</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>올드타운 홍대점</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>이자카야</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>서울 마포구 홍익로5안길 42 세븐일레븐 옆</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작', '펼쳐보기']]</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>0507-1434-7750</t>
         </is>
       </c>
     </row>
